--- a/data/allowance_rates.xlsx
+++ b/data/allowance_rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/climate_risk/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364812F8-B954-8849-94BD-08246008980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72164F7C-F4DA-D34A-B155-C1AEC680BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{1EE334BB-D7C5-4543-9BD7-10A20AF37384}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F2851-6E0A-4C44-9CDC-97198B718105}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,6 +462,190 @@
         <v>0.92</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2028</v>
+      </c>
+      <c r="B5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2029</v>
+      </c>
+      <c r="B6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2030</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2031</v>
+      </c>
+      <c r="B8">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2032</v>
+      </c>
+      <c r="B9">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2033</v>
+      </c>
+      <c r="B10">
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2034</v>
+      </c>
+      <c r="B11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2035</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2036</v>
+      </c>
+      <c r="B13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2037</v>
+      </c>
+      <c r="B14">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2038</v>
+      </c>
+      <c r="B15">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2039</v>
+      </c>
+      <c r="B16">
+        <v>0.43999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2040</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2041</v>
+      </c>
+      <c r="B18">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2042</v>
+      </c>
+      <c r="B19">
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2043</v>
+      </c>
+      <c r="B20">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2044</v>
+      </c>
+      <c r="B21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2045</v>
+      </c>
+      <c r="B22">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2046</v>
+      </c>
+      <c r="B23">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2047</v>
+      </c>
+      <c r="B24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2048</v>
+      </c>
+      <c r="B25">
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2049</v>
+      </c>
+      <c r="B26">
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2050</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
